--- a/hpa/data/emailservice.xlsx
+++ b/hpa/data/emailservice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test Time (sec)</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Scaling Action</t>
-  </si>
-  <si>
-    <t>不变</t>
   </si>
 </sst>
 </file>
@@ -364,26 +361,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>